--- a/results2.xlsx
+++ b/results2.xlsx
@@ -15,15 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>lenght</t>
   </si>
   <si>
+    <t>sorted</t>
+  </si>
+  <si>
     <t>Qs random</t>
   </si>
   <si>
     <t>Shell random</t>
+  </si>
+  <si>
+    <t>sorted growing</t>
+  </si>
+  <si>
+    <t>sorted falling</t>
+  </si>
+  <si>
+    <t>sorted growing-falling</t>
   </si>
   <si>
     <t>Qs growing</t>
@@ -399,19 +411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,104 +431,134 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>8.1036567687988281E-2</v>
+        <v>1.5624284744262701E-2</v>
       </c>
       <c r="C2">
-        <v>8.306121826171875E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7.8123569488525391E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.8124761581420898E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>20000</v>
       </c>
       <c r="B3">
-        <v>0.19113492965698239</v>
+        <v>3.1250476837158203E-2</v>
       </c>
       <c r="C3">
-        <v>0.21315217018127439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.14062690734863281</v>
+      </c>
+      <c r="D3">
+        <v>0.2187504768371582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>30000</v>
       </c>
       <c r="B4">
-        <v>0.25618267059326172</v>
+        <v>4.6892881393432617E-2</v>
       </c>
       <c r="C4">
-        <v>0.30121302604675287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.21873641014099121</v>
+      </c>
+      <c r="D4">
+        <v>0.25000333786010742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>40000</v>
       </c>
       <c r="B5">
-        <v>0.34124350547790527</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="C5">
-        <v>0.48434138298034668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.29688119888305659</v>
+      </c>
+      <c r="D5">
+        <v>0.40625333786010742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>50000</v>
       </c>
       <c r="B6">
-        <v>0.45234394073486328</v>
+        <v>7.8128337860107422E-2</v>
       </c>
       <c r="C6">
-        <v>0.60440969467163086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.40625214576721191</v>
+      </c>
+      <c r="D6">
+        <v>0.53125476837158203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>60000</v>
       </c>
       <c r="B7">
-        <v>0.5463862419128418</v>
+        <v>9.3754768371582031E-2</v>
       </c>
       <c r="C7">
-        <v>0.73252201080322266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.48437833786010742</v>
+      </c>
+      <c r="D7">
+        <v>0.59377813339233398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>70000</v>
       </c>
       <c r="B8">
-        <v>0.68648862838745117</v>
+        <v>0.12498354911804201</v>
       </c>
       <c r="C8">
-        <v>0.91665148735046387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.60937976837158203</v>
+      </c>
+      <c r="D8">
+        <v>0.76565289497375488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>80000</v>
       </c>
       <c r="B9">
-        <v>0.75954270362854004</v>
+        <v>0.1406095027923584</v>
       </c>
       <c r="C9">
-        <v>1.10978627204895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.68750476837158203</v>
+      </c>
+      <c r="D9">
+        <v>0.92190074920654297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>90000</v>
       </c>
       <c r="B10">
-        <v>0.89763569831848145</v>
+        <v>0.15624046325683591</v>
       </c>
       <c r="C10">
-        <v>1.1968502998352051</v>
+        <v>0.78125524520874023</v>
+      </c>
+      <c r="D10">
+        <v>1.0468864440917971</v>
       </c>
     </row>
   </sheetData>
@@ -528,57 +568,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>2.0012855529785161E-3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.000642776489258E-3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.0028095245361328E-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.5626668930053711E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -586,189 +641,270 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>8.0058574676513672E-3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.0038566589355469E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.20089054107666E-2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.0008811950683589E-3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.5623331069946291E-2</v>
       </c>
       <c r="G3">
-        <v>1.0001659393310549E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>300</v>
       </c>
       <c r="B4">
-        <v>1.4010190963745121E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.401090621948242E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.9020309448242191E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.56245231628418E-2</v>
       </c>
       <c r="F4">
-        <v>1.0011196136474609E-3</v>
+        <v>1.56247615814209E-2</v>
       </c>
       <c r="G4">
-        <v>9.9992752075195313E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>3.1250953674316413E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>400</v>
       </c>
       <c r="B5">
-        <v>2.4017333984375E-2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5017499923706051E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.7033786773681641E-2</v>
+        <v>1.5625715255737301E-2</v>
       </c>
       <c r="E5">
-        <v>1.0001659393310549E-3</v>
+        <v>1.562809944152832E-2</v>
       </c>
       <c r="F5">
-        <v>1.000404357910156E-3</v>
+        <v>3.1251192092895508E-2</v>
       </c>
       <c r="G5">
-        <v>1.0008811950683589E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3.124594688415527E-2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.5625715255737301E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6">
-        <v>4.003143310546875E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.9025306701660163E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.8054666519165039E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.0013580322265621E-3</v>
+        <v>3.1250715255737298E-2</v>
       </c>
       <c r="F6">
-        <v>1.000642776489258E-3</v>
+        <v>3.1251192092895508E-2</v>
       </c>
       <c r="G6">
-        <v>3.002166748046875E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>7.8126430511474609E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>600</v>
       </c>
       <c r="B7">
-        <v>6.4046859741210938E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.5047502517700195E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.11107635498046881</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.0001659393310549E-3</v>
+        <v>4.6873331069946289E-2</v>
       </c>
       <c r="F7">
-        <v>1.000642776489258E-3</v>
+        <v>4.6875715255737298E-2</v>
       </c>
       <c r="G7">
-        <v>3.002166748046875E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.1093792915344238</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>700</v>
       </c>
       <c r="B8">
-        <v>7.5055122375488281E-2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7.5067758560180664E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.15409588813781741</v>
+        <v>1.5634059906005859E-2</v>
       </c>
       <c r="E8">
-        <v>1.0001659393310549E-3</v>
+        <v>6.2499284744262702E-2</v>
       </c>
       <c r="F8">
-        <v>3.0004978179931641E-3</v>
+        <v>9.3749761581420898E-2</v>
       </c>
       <c r="G8">
-        <v>3.0031204223632808E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.1406288146972656</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.5634059906005859E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>800</v>
       </c>
       <c r="B9">
-        <v>9.9071264266967773E-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1000692844390869</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1941380500793457</v>
+        <v>1.5640020370483398E-2</v>
       </c>
       <c r="E9">
-        <v>1.000404357910156E-3</v>
+        <v>9.3760967254638672E-2</v>
       </c>
       <c r="F9">
-        <v>3.013372421264648E-3</v>
+        <v>0.1093559265136719</v>
       </c>
       <c r="G9">
-        <v>4.0073394775390616E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.26562833786010742</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.5640020370483398E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>900</v>
       </c>
       <c r="B10">
-        <v>0.1350815296173096</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.14510250091552729</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.25317955017089838</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.0008811950683589E-3</v>
+        <v>0.1093785762786865</v>
       </c>
       <c r="F10">
-        <v>3.0033588409423828E-3</v>
+        <v>0.1093583106994629</v>
       </c>
       <c r="G10">
-        <v>5.0034523010253906E-3</v>
+        <v>0.2187538146972656</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1.562595367431641E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
